--- a/output/0/tRNA-Tyr-GTA-2-1.xlsx
+++ b/output/0/tRNA-Tyr-GTA-2-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="64">
   <si>
     <t>chr2</t>
   </si>
   <si>
-    <t>27273645</t>
-  </si>
-  <si>
-    <t>27273668</t>
+    <t>27273653</t>
+  </si>
+  <si>
+    <t>27273676</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>27273665</t>
+    <t>27273673</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,187 +38,148 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>GGAGCCTTCGATAGCTCAGT</t>
+    <t>CGATAGCTCAGTTGGTAGAG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>84% (61)</t>
+  </si>
+  <si>
+    <t>46% (43)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>27273656</t>
+  </si>
+  <si>
+    <t>27273679</t>
+  </si>
+  <si>
+    <t>TAGCTCAGTTGGTAGAGCGG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>94% (66)</t>
+  </si>
+  <si>
+    <t>89% (68)</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>27273666</t>
+  </si>
+  <si>
+    <t>27273689</t>
+  </si>
+  <si>
+    <t>27273686</t>
+  </si>
+  <si>
+    <t>GGTAGAGCGGAGGACTGTAG</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>25% (33)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>27273649</t>
-  </si>
-  <si>
-    <t>27273672</t>
+    <t>91% (64)</t>
+  </si>
+  <si>
+    <t>84% (64)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>27273671</t>
+  </si>
+  <si>
+    <t>27273694</t>
+  </si>
+  <si>
+    <t>27273691</t>
+  </si>
+  <si>
+    <t>AGCGGAGGACTGTAGTGGAT</t>
+  </si>
+  <si>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>69% (54)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>27273704</t>
+  </si>
+  <si>
+    <t>27273727</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>27273652</t>
-  </si>
-  <si>
-    <t>TCTACCAACTGAGCTATCGA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>8% (20)</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>27273707</t>
+  </si>
+  <si>
+    <t>GGAATCGAACCAGCGACCTA</t>
+  </si>
+  <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>27273706</t>
+  </si>
+  <si>
+    <t>27273729</t>
+  </si>
+  <si>
+    <t>27273726</t>
+  </si>
+  <si>
+    <t>TTAGGTCGCTGGTTCGATTC</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>91% (71)</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>58</t>
-  </si>
-  <si>
-    <t>27273653</t>
-  </si>
-  <si>
-    <t>27273676</t>
-  </si>
-  <si>
-    <t>27273673</t>
-  </si>
-  <si>
-    <t>CGATAGCTCAGTTGGTAGAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>27273656</t>
-  </si>
-  <si>
-    <t>27273679</t>
-  </si>
-  <si>
-    <t>TAGCTCAGTTGGTAGAGCGG</t>
-  </si>
-  <si>
-    <t>89% (68)</t>
-  </si>
-  <si>
-    <t>27273666</t>
-  </si>
-  <si>
-    <t>27273689</t>
-  </si>
-  <si>
-    <t>27273686</t>
-  </si>
-  <si>
-    <t>GGTAGAGCGGAGGACTGTAG</t>
-  </si>
-  <si>
-    <t>91% (64)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>27273671</t>
-  </si>
-  <si>
-    <t>27273694</t>
-  </si>
-  <si>
-    <t>27273691</t>
-  </si>
-  <si>
-    <t>AGCGGAGGACTGTAGTGGAT</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>69% (54)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>27273704</t>
-  </si>
-  <si>
-    <t>27273727</t>
-  </si>
-  <si>
-    <t>27273707</t>
-  </si>
-  <si>
-    <t>GGAATCGAACCAGCGACCTA</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>27273706</t>
-  </si>
-  <si>
-    <t>27273729</t>
-  </si>
-  <si>
-    <t>27273726</t>
-  </si>
-  <si>
-    <t>TTAGGTCGCTGGTTCGATTC</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>91% (71)</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>27273714</t>
@@ -287,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -366,43 +327,43 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -416,52 +377,52 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -475,49 +436,49 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>14</v>
       </c>
       <c r="Q4" t="s">
         <v>14</v>
@@ -543,13 +504,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -561,25 +522,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -593,22 +554,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -620,25 +581,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -652,22 +613,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -679,25 +640,25 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -711,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -723,10 +684,10 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -738,25 +699,25 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
@@ -770,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -782,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -797,25 +758,25 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" t="s">
-        <v>74</v>
-      </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -829,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -841,10 +802,10 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -856,25 +817,25 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
         <v>15</v>
@@ -888,52 +849,52 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
       <c r="M11" t="s">
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R11" t="s">
         <v>15</v>
@@ -947,22 +908,22 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -974,25 +935,25 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R12" t="s">
         <v>15</v>
@@ -1006,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1018,10 +979,10 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -1033,25 +994,25 @@
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M13" t="s">
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="Q13" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
         <v>15</v>
@@ -1065,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1077,10 +1038,10 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -1092,266 +1053,30 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Q14" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
         <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
         <v>3</v>
       </c>
     </row>
